--- a/July'21/10.07.2021/Daily Sales Info.xlsx
+++ b/July'21/10.07.2021/Daily Sales Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -14761,9 +14761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56156,8 +56156,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57830,9 +57830,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59562,9 +59562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61297,9 +61297,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
